--- a/storage/app/template/template_import_xlsx.xlsx
+++ b/storage/app/template/template_import_xlsx.xlsx
@@ -24,33 +24,394 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="9">
-  <si>
-    <t>Title</t>
-  </si>
-  <si>
-    <t>Category</t>
-  </si>
-  <si>
-    <t>Dragon Book</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="129">
   <si>
     <t>QTY</t>
   </si>
   <si>
-    <t>Fiction</t>
-  </si>
-  <si>
-    <t>Magazine Color</t>
-  </si>
-  <si>
-    <t>Art</t>
-  </si>
-  <si>
-    <t>Care 101</t>
-  </si>
-  <si>
-    <t>Health</t>
+    <t>Invoice Date</t>
+  </si>
+  <si>
+    <t>Invoice No</t>
+  </si>
+  <si>
+    <t>Customer Name</t>
+  </si>
+  <si>
+    <t>Description</t>
+  </si>
+  <si>
+    <t>Item</t>
+  </si>
+  <si>
+    <t>03 Jan 2018</t>
+  </si>
+  <si>
+    <t>1801-9689/BDG</t>
+  </si>
+  <si>
+    <t>Afif Syammary</t>
+  </si>
+  <si>
+    <t>Debit BCA</t>
+  </si>
+  <si>
+    <t>1 More E1001 Triple Driver IEM</t>
+  </si>
+  <si>
+    <t>I/1801-108/BDG-GAD</t>
+  </si>
+  <si>
+    <t>14 Jan 2018</t>
+  </si>
+  <si>
+    <t>Bass Audio Jakarta - Artha Gading</t>
+  </si>
+  <si>
+    <t>1 More E1001 Triple Driver IEM (Demo)</t>
+  </si>
+  <si>
+    <t>1 More Piston Fit</t>
+  </si>
+  <si>
+    <t>ALO Litz MMCX 2.5</t>
+  </si>
+  <si>
+    <t>ATH-AR1iS</t>
+  </si>
+  <si>
+    <t>ATH-DSR7BT Black</t>
+  </si>
+  <si>
+    <t>ATH-LS50iS Black</t>
+  </si>
+  <si>
+    <t>ATH-LS70iS Black</t>
+  </si>
+  <si>
+    <t>I/1801-109/BDG-MTA</t>
+  </si>
+  <si>
+    <t>1802-9985/BDG</t>
+  </si>
+  <si>
+    <t>1803-0200/BDG</t>
+  </si>
+  <si>
+    <t>1801-9723/BDG</t>
+  </si>
+  <si>
+    <t>1801-9739/BDG</t>
+  </si>
+  <si>
+    <t>1801-9767/BDG</t>
+  </si>
+  <si>
+    <t>1801-9780/BDG</t>
+  </si>
+  <si>
+    <t>1801-9796/BDG</t>
+  </si>
+  <si>
+    <t>1801-9801/BDG</t>
+  </si>
+  <si>
+    <t>1801-9819/BDG</t>
+  </si>
+  <si>
+    <t>1801-9841/BDG</t>
+  </si>
+  <si>
+    <t>1802-9879/BDG</t>
+  </si>
+  <si>
+    <t>1802-9880/BDG</t>
+  </si>
+  <si>
+    <t>1802-9896/BDG</t>
+  </si>
+  <si>
+    <t>1802-9961/BDG</t>
+  </si>
+  <si>
+    <t>1802-9964/BDG</t>
+  </si>
+  <si>
+    <t>I/1802-119/BDG-GAD</t>
+  </si>
+  <si>
+    <t>1803-0109/BDG</t>
+  </si>
+  <si>
+    <t>1803-0116/BDG</t>
+  </si>
+  <si>
+    <t>1803-0122/BDG</t>
+  </si>
+  <si>
+    <t>1803-0135/BDG</t>
+  </si>
+  <si>
+    <t>1803-0139/BDG</t>
+  </si>
+  <si>
+    <t>1803-0185/BDG</t>
+  </si>
+  <si>
+    <t>1803-0206/BDG</t>
+  </si>
+  <si>
+    <t>1803-0223/BDG</t>
+  </si>
+  <si>
+    <t>1804-0275/BDG</t>
+  </si>
+  <si>
+    <t>1801-9707/BDG</t>
+  </si>
+  <si>
+    <t>I/1801-112/BDG-GAD</t>
+  </si>
+  <si>
+    <t>I/1801-113/BDG-MTA</t>
+  </si>
+  <si>
+    <t>1803-0175/BDG</t>
+  </si>
+  <si>
+    <t>1804-0229/BDG</t>
+  </si>
+  <si>
+    <t>I/1803-121/BDG-GAD</t>
+  </si>
+  <si>
+    <t>1801-9789/BDG</t>
+  </si>
+  <si>
+    <t>1802-9881/BDG</t>
+  </si>
+  <si>
+    <t>1803-0006/BDG</t>
+  </si>
+  <si>
+    <t>1803-0218/BDG</t>
+  </si>
+  <si>
+    <t>1801-9722/BDG</t>
+  </si>
+  <si>
+    <t>26 Feb 2018</t>
+  </si>
+  <si>
+    <t>28 Mar 2018</t>
+  </si>
+  <si>
+    <t>09 Jan 2018</t>
+  </si>
+  <si>
+    <t>13 Jan 2018</t>
+  </si>
+  <si>
+    <t>17 Jan 2018</t>
+  </si>
+  <si>
+    <t>19 Jan 2018</t>
+  </si>
+  <si>
+    <t>23 Jan 2018</t>
+  </si>
+  <si>
+    <t>24 Jan 2018</t>
+  </si>
+  <si>
+    <t>27 Jan 2018</t>
+  </si>
+  <si>
+    <t>01 Feb 2018</t>
+  </si>
+  <si>
+    <t>07 Feb 2018</t>
+  </si>
+  <si>
+    <t>10 Feb 2018</t>
+  </si>
+  <si>
+    <t>22 Feb 2018</t>
+  </si>
+  <si>
+    <t>25 Feb 2018</t>
+  </si>
+  <si>
+    <t>15 Mar 2018</t>
+  </si>
+  <si>
+    <t>16 Mar 2018</t>
+  </si>
+  <si>
+    <t>17 Mar 2018</t>
+  </si>
+  <si>
+    <t>19 Mar 2018</t>
+  </si>
+  <si>
+    <t>20 Mar 2018</t>
+  </si>
+  <si>
+    <t>26 Mar 2018</t>
+  </si>
+  <si>
+    <t>31 Mar 2018</t>
+  </si>
+  <si>
+    <t>06 Apr 2018</t>
+  </si>
+  <si>
+    <t>07 Jan 2018</t>
+  </si>
+  <si>
+    <t>25 Mar 2018</t>
+  </si>
+  <si>
+    <t>01 Apr 2018</t>
+  </si>
+  <si>
+    <t>21 Jan 2018</t>
+  </si>
+  <si>
+    <t>01 Mar 2018</t>
+  </si>
+  <si>
+    <t>30 Mar 2018</t>
+  </si>
+  <si>
+    <t/>
+  </si>
+  <si>
+    <t>Cicilan BCA 6x</t>
+  </si>
+  <si>
+    <t>Debit Mandiri</t>
+  </si>
+  <si>
+    <t>Maestro BCA</t>
+  </si>
+  <si>
+    <t>Cash</t>
+  </si>
+  <si>
+    <t>Bukalapak</t>
+  </si>
+  <si>
+    <t>Transfer BCA #3184</t>
+  </si>
+  <si>
+    <t>Tokopedia</t>
+  </si>
+  <si>
+    <t>Switching BCA</t>
+  </si>
+  <si>
+    <t>Maestro BCA 300 + Cash 420
+294+420</t>
+  </si>
+  <si>
+    <t>Transfer BCA</t>
+  </si>
+  <si>
+    <t>Bass Audio Jakarta - Taman Anggrek</t>
+  </si>
+  <si>
+    <t>Tam Yam Yoeng</t>
+  </si>
+  <si>
+    <t>Dadan Ardi</t>
+  </si>
+  <si>
+    <t>Deny Krisna</t>
+  </si>
+  <si>
+    <t>Darian Amarta</t>
+  </si>
+  <si>
+    <t>Rezha M</t>
+  </si>
+  <si>
+    <t>M.Ilham Ghozali</t>
+  </si>
+  <si>
+    <t>fadhil azmi</t>
+  </si>
+  <si>
+    <t>Achmad Noviandi</t>
+  </si>
+  <si>
+    <t>Dody</t>
+  </si>
+  <si>
+    <t>Indra</t>
+  </si>
+  <si>
+    <t>Melati Resy</t>
+  </si>
+  <si>
+    <t>M Sony, A</t>
+  </si>
+  <si>
+    <t>Yogi Saputra</t>
+  </si>
+  <si>
+    <t>Fachri Achmad</t>
+  </si>
+  <si>
+    <t>Agung Mulyawan</t>
+  </si>
+  <si>
+    <t>Teguh</t>
+  </si>
+  <si>
+    <t>Desixo Benrino Arighi</t>
+  </si>
+  <si>
+    <t>Yahya</t>
+  </si>
+  <si>
+    <t>Adhi Nourizal R</t>
+  </si>
+  <si>
+    <t>Agus Edo Falda</t>
+  </si>
+  <si>
+    <t>Nadya</t>
+  </si>
+  <si>
+    <t>Achmad Tegar S</t>
+  </si>
+  <si>
+    <t>Arya Tri P</t>
+  </si>
+  <si>
+    <t>Yoel Albert Laoh</t>
+  </si>
+  <si>
+    <t>Bondan Danu</t>
+  </si>
+  <si>
+    <t>Daniel Setiabudhi</t>
+  </si>
+  <si>
+    <t>Syady Alif Prabasmoro</t>
+  </si>
+  <si>
+    <t>Kinanti Riestamala</t>
+  </si>
+  <si>
+    <t>Ryan N</t>
+  </si>
+  <si>
+    <t>Kevin Chrisandy</t>
+  </si>
+  <si>
+    <t>Amalta Putri</t>
   </si>
 </sst>
 </file>
@@ -95,10 +456,10 @@
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="49" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
+    <xf numFmtId="3" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -379,62 +740,905 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C4"/>
+  <dimension ref="A1:F45"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
       <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B5" sqref="B5"/>
+      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="23.42578125" style="3" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="19.28515625" style="3" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="13.42578125" style="5" bestFit="1" customWidth="1"/>
+    <col min="1" max="2" width="20.5703125" style="3" customWidth="1"/>
+    <col min="3" max="3" width="33" style="3" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.140625" style="5"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="D1" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="E1" s="1" t="s">
+        <v>5</v>
+      </c>
+      <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2" t="s">
-        <v>1</v>
-      </c>
-      <c r="C1" s="4" t="s">
+    </row>
+    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="B2" s="3" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="3" t="s">
+        <v>8</v>
+      </c>
+      <c r="D2" t="s">
+        <v>9</v>
+      </c>
+      <c r="E2" t="s">
+        <v>10</v>
+      </c>
+      <c r="F2" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A3" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B3" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C3" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E3" t="s">
+        <v>10</v>
+      </c>
+      <c r="F3" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A4" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B4" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C4" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D4" t="s">
+        <v>86</v>
+      </c>
+      <c r="E4" t="s">
+        <v>10</v>
+      </c>
+      <c r="F4" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="B5" s="3" t="s">
+        <v>58</v>
+      </c>
+      <c r="C5" s="3" t="s">
+        <v>98</v>
+      </c>
+      <c r="D5" t="s">
+        <v>87</v>
+      </c>
+      <c r="E5" t="s">
+        <v>10</v>
+      </c>
+      <c r="F5" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A6" s="3" t="s">
+        <v>23</v>
+      </c>
+      <c r="B6" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C6" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D6" t="s">
+        <v>88</v>
+      </c>
+      <c r="E6" t="s">
+        <v>14</v>
+      </c>
+      <c r="F6" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A7" s="3" t="s">
+        <v>24</v>
+      </c>
+      <c r="B7" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C7" s="3" t="s">
+        <v>100</v>
+      </c>
+      <c r="D7" t="s">
+        <v>89</v>
+      </c>
+      <c r="E7" t="s">
+        <v>15</v>
+      </c>
+      <c r="F7" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A8" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="B8" s="3" t="s">
+        <v>61</v>
+      </c>
+      <c r="C8" s="3" t="s">
+        <v>101</v>
+      </c>
+      <c r="D8" t="s">
+        <v>90</v>
+      </c>
+      <c r="E8" t="s">
+        <v>15</v>
+      </c>
+      <c r="F8" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A9" s="3" t="s">
+        <v>11</v>
+      </c>
+      <c r="B9" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C9" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D9" t="s">
+        <v>86</v>
+      </c>
+      <c r="E9" t="s">
+        <v>15</v>
+      </c>
+      <c r="F9" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A10" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="B10" s="3" t="s">
+        <v>12</v>
+      </c>
+      <c r="C10" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D10" t="s">
+        <v>86</v>
+      </c>
+      <c r="E10" t="s">
+        <v>15</v>
+      </c>
+      <c r="F10" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A11" s="3" t="s">
+        <v>26</v>
+      </c>
+      <c r="B11" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C11" s="3" t="s">
+        <v>102</v>
+      </c>
+      <c r="D11" t="s">
+        <v>9</v>
+      </c>
+      <c r="E11" t="s">
+        <v>15</v>
+      </c>
+      <c r="F11" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A12" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B12" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C12" s="3" t="s">
+        <v>103</v>
+      </c>
+      <c r="D12" t="s">
+        <v>90</v>
+      </c>
+      <c r="E12" t="s">
+        <v>15</v>
+      </c>
+      <c r="F12" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A13" s="3" t="s">
+        <v>28</v>
+      </c>
+      <c r="B13" s="3" t="s">
+        <v>64</v>
+      </c>
+      <c r="C13" s="3" t="s">
+        <v>104</v>
+      </c>
+      <c r="D13" t="s">
+        <v>91</v>
+      </c>
+      <c r="E13" t="s">
+        <v>15</v>
+      </c>
+      <c r="F13" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A14" s="3" t="s">
+        <v>29</v>
+      </c>
+      <c r="B14" s="3" t="s">
+        <v>65</v>
+      </c>
+      <c r="C14" s="3" t="s">
+        <v>105</v>
+      </c>
+      <c r="D14" t="s">
+        <v>90</v>
+      </c>
+      <c r="E14" t="s">
+        <v>15</v>
+      </c>
+      <c r="F14" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A15" s="3" t="s">
+        <v>30</v>
+      </c>
+      <c r="B15" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C15" s="3" t="s">
+        <v>106</v>
+      </c>
+      <c r="D15" t="s">
+        <v>9</v>
+      </c>
+      <c r="E15" t="s">
+        <v>15</v>
+      </c>
+      <c r="F15" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A16" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B16" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C16" s="3" t="s">
+        <v>107</v>
+      </c>
+      <c r="D16" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" t="s">
+        <v>15</v>
+      </c>
+      <c r="F16" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A17" s="3" t="s">
+        <v>32</v>
+      </c>
+      <c r="B17" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C17" s="3" t="s">
+        <v>108</v>
+      </c>
+      <c r="D17" t="s">
+        <v>92</v>
+      </c>
+      <c r="E17" t="s">
+        <v>15</v>
+      </c>
+      <c r="F17" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A18" s="3" t="s">
+        <v>33</v>
+      </c>
+      <c r="B18" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C18" s="3" t="s">
+        <v>109</v>
+      </c>
+      <c r="D18" t="s">
+        <v>90</v>
+      </c>
+      <c r="E18" t="s">
+        <v>15</v>
+      </c>
+      <c r="F18" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A19" s="3" t="s">
+        <v>34</v>
+      </c>
+      <c r="B19" s="3" t="s">
+        <v>69</v>
+      </c>
+      <c r="C19" s="3" t="s">
+        <v>110</v>
+      </c>
+      <c r="D19" t="s">
+        <v>90</v>
+      </c>
+      <c r="E19" t="s">
+        <v>15</v>
+      </c>
+      <c r="F19" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C20" s="3" t="s">
+        <v>111</v>
+      </c>
+      <c r="D20" t="s">
+        <v>90</v>
+      </c>
+      <c r="E20" t="s">
+        <v>15</v>
+      </c>
+      <c r="F20" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A21" s="3" t="s">
+        <v>36</v>
+      </c>
+      <c r="B21" s="3" t="s">
+        <v>70</v>
+      </c>
+      <c r="C21" s="3" t="s">
+        <v>112</v>
+      </c>
+      <c r="D21" t="s">
+        <v>93</v>
+      </c>
+      <c r="E21" t="s">
+        <v>15</v>
+      </c>
+      <c r="F21" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A22" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B22" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C22" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D22" t="s">
+        <v>86</v>
+      </c>
+      <c r="E22" t="s">
+        <v>15</v>
+      </c>
+      <c r="F22" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A23" s="3" t="s">
+        <v>38</v>
+      </c>
+      <c r="B23" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C23" s="3" t="s">
+        <v>113</v>
+      </c>
+      <c r="D23" t="s">
+        <v>90</v>
+      </c>
+      <c r="E23" t="s">
+        <v>15</v>
+      </c>
+      <c r="F23" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A24" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B24" s="3" t="s">
+        <v>73</v>
+      </c>
+      <c r="C24" s="3" t="s">
+        <v>114</v>
+      </c>
+      <c r="D24" t="s">
+        <v>93</v>
+      </c>
+      <c r="E24" t="s">
+        <v>15</v>
+      </c>
+      <c r="F24" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A25" s="3" t="s">
+        <v>40</v>
+      </c>
+      <c r="B25" s="3" t="s">
+        <v>74</v>
+      </c>
+      <c r="C25" s="3" t="s">
+        <v>115</v>
+      </c>
+      <c r="D25" t="s">
+        <v>90</v>
+      </c>
+      <c r="E25" t="s">
+        <v>15</v>
+      </c>
+      <c r="F25" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A26" s="3" t="s">
+        <v>41</v>
+      </c>
+      <c r="B26" s="3" t="s">
+        <v>75</v>
+      </c>
+      <c r="C26" s="3" t="s">
+        <v>116</v>
+      </c>
+      <c r="D26" t="s">
+        <v>9</v>
+      </c>
+      <c r="E26" t="s">
+        <v>15</v>
+      </c>
+      <c r="F26" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A27" s="3" t="s">
+        <v>42</v>
+      </c>
+      <c r="B27" s="3" t="s">
+        <v>76</v>
+      </c>
+      <c r="C27" s="3" t="s">
+        <v>117</v>
+      </c>
+      <c r="D27" t="s">
+        <v>90</v>
+      </c>
+      <c r="E27" t="s">
+        <v>15</v>
+      </c>
+      <c r="F27" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A28" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B28" s="3" t="s">
+        <v>77</v>
+      </c>
+      <c r="C28" s="3" t="s">
+        <v>118</v>
+      </c>
+      <c r="D28" t="s">
+        <v>94</v>
+      </c>
+      <c r="E28" t="s">
+        <v>15</v>
+      </c>
+      <c r="F28" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A29" s="3" t="s">
+        <v>44</v>
+      </c>
+      <c r="B29" s="3" t="s">
+        <v>59</v>
+      </c>
+      <c r="C29" s="3" t="s">
+        <v>119</v>
+      </c>
+      <c r="D29" t="s">
+        <v>90</v>
+      </c>
+      <c r="E29" t="s">
+        <v>15</v>
+      </c>
+      <c r="F29" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A30" s="3" t="s">
+        <v>45</v>
+      </c>
+      <c r="B30" s="3" t="s">
+        <v>78</v>
+      </c>
+      <c r="C30" s="3" t="s">
+        <v>120</v>
+      </c>
+      <c r="D30" t="s">
+        <v>9</v>
+      </c>
+      <c r="E30" t="s">
+        <v>15</v>
+      </c>
+      <c r="F30" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A31" s="3" t="s">
+        <v>46</v>
+      </c>
+      <c r="B31" s="3" t="s">
+        <v>79</v>
+      </c>
+      <c r="C31" s="3" t="s">
+        <v>121</v>
+      </c>
+      <c r="D31" t="s">
+        <v>88</v>
+      </c>
+      <c r="E31" t="s">
+        <v>15</v>
+      </c>
+      <c r="F31" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A32" s="3" t="s">
+        <v>37</v>
+      </c>
+      <c r="B32" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C32" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E32" t="s">
+        <v>16</v>
+      </c>
+      <c r="F32" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A33" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B33" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C33" s="3" t="s">
+        <v>122</v>
+      </c>
+      <c r="D33" t="s">
+        <v>95</v>
+      </c>
+      <c r="E33" t="s">
+        <v>17</v>
+      </c>
+      <c r="F33" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A34" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B34" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C34" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="D34" t="s">
+        <v>86</v>
+      </c>
+      <c r="E34" t="s">
+        <v>17</v>
+      </c>
+      <c r="F34" s="5">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A35" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B35" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C35" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="D35" t="s">
+        <v>86</v>
+      </c>
+      <c r="E35" t="s">
+        <v>17</v>
+      </c>
+      <c r="F35" s="5">
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A2" s="3" t="s">
+    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A36" s="3" t="s">
+        <v>50</v>
+      </c>
+      <c r="B36" s="3" t="s">
+        <v>81</v>
+      </c>
+      <c r="C36" s="3" t="s">
+        <v>123</v>
+      </c>
+      <c r="D36" t="s">
+        <v>9</v>
+      </c>
+      <c r="E36" t="s">
+        <v>17</v>
+      </c>
+      <c r="F36" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A37" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B37" s="3" t="s">
+        <v>82</v>
+      </c>
+      <c r="C37" s="3" t="s">
+        <v>124</v>
+      </c>
+      <c r="D37" t="s">
+        <v>90</v>
+      </c>
+      <c r="E37" t="s">
+        <v>17</v>
+      </c>
+      <c r="F37" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A38" s="3" t="s">
+        <v>48</v>
+      </c>
+      <c r="B38" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C38" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E38" t="s">
+        <v>18</v>
+      </c>
+      <c r="F38" s="5">
         <v>2</v>
       </c>
-      <c r="B2" s="3" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="5">
-        <v>12</v>
-      </c>
-    </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A3" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="B3" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="C3" s="5">
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A39" s="3" t="s">
+        <v>49</v>
+      </c>
+      <c r="B39" s="3" t="s">
+        <v>63</v>
+      </c>
+      <c r="C39" s="3" t="s">
+        <v>97</v>
+      </c>
+      <c r="E39" t="s">
+        <v>18</v>
+      </c>
+      <c r="F39" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A40" s="3" t="s">
+        <v>52</v>
+      </c>
+      <c r="B40" s="3" t="s">
+        <v>72</v>
+      </c>
+      <c r="C40" s="3" t="s">
+        <v>13</v>
+      </c>
+      <c r="E40" t="s">
+        <v>18</v>
+      </c>
+      <c r="F40" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A41" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="B41" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C41" s="3" t="s">
+        <v>125</v>
+      </c>
+      <c r="D41" t="s">
+        <v>93</v>
+      </c>
+      <c r="E41" t="s">
+        <v>19</v>
+      </c>
+      <c r="F41" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A42" s="3" t="s">
+        <v>54</v>
+      </c>
+      <c r="B42" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C42" s="3" t="s">
+        <v>126</v>
+      </c>
+      <c r="D42" t="s">
+        <v>96</v>
+      </c>
+      <c r="E42" t="s">
+        <v>19</v>
+      </c>
+      <c r="F42" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A43" s="3" t="s">
+        <v>55</v>
+      </c>
+      <c r="B43" s="3" t="s">
+        <v>84</v>
+      </c>
+      <c r="C43" s="3" t="s">
+        <v>127</v>
+      </c>
+      <c r="D43" t="s">
+        <v>90</v>
+      </c>
+      <c r="E43" t="s">
+        <v>19</v>
+      </c>
+      <c r="F43" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A44" s="3" t="s">
+        <v>56</v>
+      </c>
+      <c r="B44" s="3" t="s">
+        <v>85</v>
+      </c>
+      <c r="C44" s="3" t="s">
+        <v>128</v>
+      </c>
+      <c r="D44" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.25">
-      <c r="A4" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="B4" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="C4" s="5">
-        <v>4</v>
+      <c r="E44" t="s">
+        <v>19</v>
+      </c>
+      <c r="F44" s="5">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A45" s="3" t="s">
+        <v>57</v>
+      </c>
+      <c r="B45" s="3" t="s">
+        <v>60</v>
+      </c>
+      <c r="C45" s="3" t="s">
+        <v>99</v>
+      </c>
+      <c r="D45" t="s">
+        <v>88</v>
+      </c>
+      <c r="E45" t="s">
+        <v>20</v>
+      </c>
+      <c r="F45" s="5">
+        <v>1</v>
       </c>
     </row>
   </sheetData>

--- a/storage/app/template/template_import_xlsx.xlsx
+++ b/storage/app/template/template_import_xlsx.xlsx
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="129">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="326" uniqueCount="191">
   <si>
     <t>QTY</t>
   </si>
@@ -282,9 +282,6 @@
   </si>
   <si>
     <t>30 Mar 2018</t>
-  </si>
-  <si>
-    <t/>
   </si>
   <si>
     <t>Cicilan BCA 6x</t>
@@ -412,6 +409,195 @@
   </si>
   <si>
     <t>Amalta Putri</t>
+  </si>
+  <si>
+    <t>Total</t>
+  </si>
+  <si>
+    <t>1801-9765/BDG</t>
+  </si>
+  <si>
+    <t>Ezra Mikhael</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Tokopedia </t>
+  </si>
+  <si>
+    <t>1801-9790/BDG</t>
+  </si>
+  <si>
+    <t>Agus Sembiring</t>
+  </si>
+  <si>
+    <t>Mastercard BCA</t>
+  </si>
+  <si>
+    <t>1801-9731/BDG</t>
+  </si>
+  <si>
+    <t>1801-9733/BDG</t>
+  </si>
+  <si>
+    <t>1801-9736/BDG</t>
+  </si>
+  <si>
+    <t>1801-9822/BDG</t>
+  </si>
+  <si>
+    <t>1801-9840/BDG</t>
+  </si>
+  <si>
+    <t>1802-9862/BDG</t>
+  </si>
+  <si>
+    <t>1802-9883/BDG</t>
+  </si>
+  <si>
+    <t>1802-9901/BDG</t>
+  </si>
+  <si>
+    <t>1802-9933/BDG</t>
+  </si>
+  <si>
+    <t>1802-9977/BDG</t>
+  </si>
+  <si>
+    <t>1802-9979/BDG</t>
+  </si>
+  <si>
+    <t>1802-9983/BDG</t>
+  </si>
+  <si>
+    <t>1803-0096/BDG</t>
+  </si>
+  <si>
+    <t>1804-0283/BDG</t>
+  </si>
+  <si>
+    <t>11 Jan 2018</t>
+  </si>
+  <si>
+    <t>12 Jan 2018</t>
+  </si>
+  <si>
+    <t>28 Jan 2018</t>
+  </si>
+  <si>
+    <t>04 Feb 2018</t>
+  </si>
+  <si>
+    <t>11 Feb 2018</t>
+  </si>
+  <si>
+    <t>17 Feb 2018</t>
+  </si>
+  <si>
+    <t>24 Feb 2018</t>
+  </si>
+  <si>
+    <t>14 Mar 2018</t>
+  </si>
+  <si>
+    <t>08 Apr 2018</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Debit BCA </t>
+  </si>
+  <si>
+    <t>ATH-M20x</t>
+  </si>
+  <si>
+    <t>Hasan</t>
+  </si>
+  <si>
+    <t>Yayat Supriatna</t>
+  </si>
+  <si>
+    <t>Rido</t>
+  </si>
+  <si>
+    <t>Mochamad Ridha Gustian</t>
+  </si>
+  <si>
+    <t>Wigantara Pratama</t>
+  </si>
+  <si>
+    <t>Agung Setiawan</t>
+  </si>
+  <si>
+    <t>Tian</t>
+  </si>
+  <si>
+    <t>Dhani Eka</t>
+  </si>
+  <si>
+    <t>Jonathan Billy</t>
+  </si>
+  <si>
+    <t>Achmad Rizk Ni</t>
+  </si>
+  <si>
+    <t>M. Faris Saifuddin</t>
+  </si>
+  <si>
+    <t>Rizal</t>
+  </si>
+  <si>
+    <t>Kusnaga Bhakti</t>
+  </si>
+  <si>
+    <t>Dile</t>
+  </si>
+  <si>
+    <t>1801-9702/BDG</t>
+  </si>
+  <si>
+    <t>1801-9705/BDG</t>
+  </si>
+  <si>
+    <t>1801-9775/BDG</t>
+  </si>
+  <si>
+    <t>1801-9792/BDG</t>
+  </si>
+  <si>
+    <t>1801-9820/BDG</t>
+  </si>
+  <si>
+    <t>1802-9940/BDG</t>
+  </si>
+  <si>
+    <t>06 Jan 2018</t>
+  </si>
+  <si>
+    <t>18 Jan 2018</t>
+  </si>
+  <si>
+    <t>22 Jan 2018</t>
+  </si>
+  <si>
+    <t>18 Feb 2018</t>
+  </si>
+  <si>
+    <t>ATH-M30x</t>
+  </si>
+  <si>
+    <t>Rizky M Subeki</t>
+  </si>
+  <si>
+    <t>Kahiyang Raja Niskala</t>
+  </si>
+  <si>
+    <t>Riva Fadila</t>
+  </si>
+  <si>
+    <t>Irlin Novalina</t>
+  </si>
+  <si>
+    <t>Rayana Hermaka</t>
+  </si>
+  <si>
+    <t>Ari Pratama Z</t>
   </si>
 </sst>
 </file>
@@ -740,23 +926,24 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:F45"/>
+  <dimension ref="A1:G67"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="C1" workbookViewId="0">
-      <pane ySplit="1" topLeftCell="A2" activePane="bottomLeft" state="frozen"/>
-      <selection pane="bottomLeft" activeCell="B1" sqref="B1"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <pane ySplit="1" topLeftCell="A61" activePane="bottomLeft" state="frozen"/>
+      <selection pane="bottomLeft" activeCell="C67" sqref="C67"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="2" width="20.5703125" style="3" customWidth="1"/>
     <col min="3" max="3" width="33" style="3" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="34.140625" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="35.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.140625" style="3" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="35.7109375" style="3" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="9.140625" style="5"/>
+    <col min="7" max="7" width="15.85546875" style="5" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:6" s="1" customFormat="1" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:7" s="1" customFormat="1" x14ac:dyDescent="0.25">
       <c r="A1" s="2" t="s">
         <v>2</v>
       </c>
@@ -766,17 +953,20 @@
       <c r="C1" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="D1" s="1" t="s">
+      <c r="D1" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E1" s="1" t="s">
+      <c r="E1" s="2" t="s">
         <v>5</v>
       </c>
       <c r="F1" s="4" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G1" s="4" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" s="3" t="s">
         <v>7</v>
       </c>
@@ -786,17 +976,20 @@
       <c r="C2" s="3" t="s">
         <v>8</v>
       </c>
-      <c r="D2" t="s">
+      <c r="D2" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E2" t="s">
+      <c r="E2" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F2" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G2" s="5">
+        <v>1790000</v>
+      </c>
+    </row>
+    <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" s="3" t="s">
         <v>11</v>
       </c>
@@ -806,14 +999,17 @@
       <c r="C3" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E3" t="s">
+      <c r="E3" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F3" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G3" s="5">
+        <v>2394000</v>
+      </c>
+    </row>
+    <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" s="3" t="s">
         <v>21</v>
       </c>
@@ -821,19 +1017,19 @@
         <v>12</v>
       </c>
       <c r="C4" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D4" t="s">
-        <v>86</v>
-      </c>
-      <c r="E4" t="s">
+        <v>96</v>
+      </c>
+      <c r="E4" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F4" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="5" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G4" s="5">
+        <v>2394000</v>
+      </c>
+    </row>
+    <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" s="3" t="s">
         <v>22</v>
       </c>
@@ -841,19 +1037,22 @@
         <v>58</v>
       </c>
       <c r="C5" s="3" t="s">
-        <v>98</v>
-      </c>
-      <c r="D5" t="s">
-        <v>87</v>
-      </c>
-      <c r="E5" t="s">
+        <v>97</v>
+      </c>
+      <c r="D5" s="3" t="s">
+        <v>86</v>
+      </c>
+      <c r="E5" s="3" t="s">
         <v>10</v>
       </c>
       <c r="F5" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="6" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G5" s="5">
+        <v>3365200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" s="3" t="s">
         <v>23</v>
       </c>
@@ -861,19 +1060,22 @@
         <v>59</v>
       </c>
       <c r="C6" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D6" t="s">
-        <v>88</v>
-      </c>
-      <c r="E6" t="s">
+        <v>98</v>
+      </c>
+      <c r="D6" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>14</v>
       </c>
       <c r="F6" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="7" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G6" s="5">
+        <v>1600000</v>
+      </c>
+    </row>
+    <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" s="3" t="s">
         <v>24</v>
       </c>
@@ -881,19 +1083,22 @@
         <v>60</v>
       </c>
       <c r="C7" s="3" t="s">
-        <v>100</v>
-      </c>
-      <c r="D7" t="s">
-        <v>89</v>
-      </c>
-      <c r="E7" t="s">
+        <v>99</v>
+      </c>
+      <c r="D7" s="3" t="s">
+        <v>88</v>
+      </c>
+      <c r="E7" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F7" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="8" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G7" s="5">
+        <v>196000</v>
+      </c>
+    </row>
+    <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" s="3" t="s">
         <v>25</v>
       </c>
@@ -901,19 +1106,22 @@
         <v>61</v>
       </c>
       <c r="C8" s="3" t="s">
-        <v>101</v>
-      </c>
-      <c r="D8" t="s">
-        <v>90</v>
-      </c>
-      <c r="E8" t="s">
+        <v>100</v>
+      </c>
+      <c r="D8" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E8" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F8" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="9" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G8" s="5">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" s="3" t="s">
         <v>11</v>
       </c>
@@ -923,17 +1131,17 @@
       <c r="C9" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D9" t="s">
-        <v>86</v>
-      </c>
-      <c r="E9" t="s">
+      <c r="E9" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F9" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="10" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G9" s="5">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" s="3" t="s">
         <v>21</v>
       </c>
@@ -941,19 +1149,19 @@
         <v>12</v>
       </c>
       <c r="C10" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D10" t="s">
-        <v>86</v>
-      </c>
-      <c r="E10" t="s">
+        <v>96</v>
+      </c>
+      <c r="E10" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F10" s="5">
         <v>5</v>
       </c>
-    </row>
-    <row r="11" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G10" s="5">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" s="3" t="s">
         <v>26</v>
       </c>
@@ -961,19 +1169,22 @@
         <v>62</v>
       </c>
       <c r="C11" s="3" t="s">
-        <v>102</v>
-      </c>
-      <c r="D11" t="s">
+        <v>101</v>
+      </c>
+      <c r="D11" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E11" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F11" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="12" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G11" s="5">
+        <v>219670</v>
+      </c>
+    </row>
+    <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" s="3" t="s">
         <v>27</v>
       </c>
@@ -981,19 +1192,22 @@
         <v>63</v>
       </c>
       <c r="C12" s="3" t="s">
-        <v>103</v>
-      </c>
-      <c r="D12" t="s">
-        <v>90</v>
-      </c>
-      <c r="E12" t="s">
+        <v>102</v>
+      </c>
+      <c r="D12" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E12" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F12" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="13" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G12" s="5">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" s="3" t="s">
         <v>28</v>
       </c>
@@ -1001,19 +1215,22 @@
         <v>64</v>
       </c>
       <c r="C13" s="3" t="s">
-        <v>104</v>
-      </c>
-      <c r="D13" t="s">
-        <v>91</v>
-      </c>
-      <c r="E13" t="s">
+        <v>103</v>
+      </c>
+      <c r="D13" s="3" t="s">
+        <v>90</v>
+      </c>
+      <c r="E13" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F13" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="14" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G13" s="5">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" s="3" t="s">
         <v>29</v>
       </c>
@@ -1021,19 +1238,22 @@
         <v>65</v>
       </c>
       <c r="C14" s="3" t="s">
-        <v>105</v>
-      </c>
-      <c r="D14" t="s">
-        <v>90</v>
-      </c>
-      <c r="E14" t="s">
+        <v>104</v>
+      </c>
+      <c r="D14" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E14" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F14" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G14" s="5">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" s="3" t="s">
         <v>30</v>
       </c>
@@ -1041,19 +1261,22 @@
         <v>66</v>
       </c>
       <c r="C15" s="3" t="s">
-        <v>106</v>
-      </c>
-      <c r="D15" t="s">
+        <v>105</v>
+      </c>
+      <c r="D15" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E15" t="s">
+      <c r="E15" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F15" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="16" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G15" s="5">
+        <v>219670</v>
+      </c>
+    </row>
+    <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" s="3" t="s">
         <v>31</v>
       </c>
@@ -1061,19 +1284,22 @@
         <v>67</v>
       </c>
       <c r="C16" s="3" t="s">
-        <v>107</v>
-      </c>
-      <c r="D16" t="s">
+        <v>106</v>
+      </c>
+      <c r="D16" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E16" t="s">
+      <c r="E16" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F16" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="17" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G16" s="5">
+        <v>219670</v>
+      </c>
+    </row>
+    <row r="17" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A17" s="3" t="s">
         <v>32</v>
       </c>
@@ -1081,19 +1307,22 @@
         <v>68</v>
       </c>
       <c r="C17" s="3" t="s">
-        <v>108</v>
-      </c>
-      <c r="D17" t="s">
-        <v>92</v>
-      </c>
-      <c r="E17" t="s">
+        <v>107</v>
+      </c>
+      <c r="D17" s="3" t="s">
+        <v>91</v>
+      </c>
+      <c r="E17" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F17" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="18" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G17" s="5">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="18" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A18" s="3" t="s">
         <v>33</v>
       </c>
@@ -1101,19 +1330,22 @@
         <v>68</v>
       </c>
       <c r="C18" s="3" t="s">
-        <v>109</v>
-      </c>
-      <c r="D18" t="s">
-        <v>90</v>
-      </c>
-      <c r="E18" t="s">
+        <v>108</v>
+      </c>
+      <c r="D18" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E18" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F18" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="19" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G18" s="5">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="19" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A19" s="3" t="s">
         <v>34</v>
       </c>
@@ -1121,19 +1353,22 @@
         <v>69</v>
       </c>
       <c r="C19" s="3" t="s">
-        <v>110</v>
-      </c>
-      <c r="D19" t="s">
-        <v>90</v>
-      </c>
-      <c r="E19" t="s">
+        <v>109</v>
+      </c>
+      <c r="D19" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E19" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F19" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="20" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G19" s="5">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="20" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A20" s="3" t="s">
         <v>35</v>
       </c>
@@ -1141,19 +1376,22 @@
         <v>70</v>
       </c>
       <c r="C20" s="3" t="s">
-        <v>111</v>
-      </c>
-      <c r="D20" t="s">
-        <v>90</v>
-      </c>
-      <c r="E20" t="s">
+        <v>110</v>
+      </c>
+      <c r="D20" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E20" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F20" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="21" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G20" s="5">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="21" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A21" s="3" t="s">
         <v>36</v>
       </c>
@@ -1161,19 +1399,22 @@
         <v>70</v>
       </c>
       <c r="C21" s="3" t="s">
-        <v>112</v>
-      </c>
-      <c r="D21" t="s">
-        <v>93</v>
-      </c>
-      <c r="E21" t="s">
+        <v>111</v>
+      </c>
+      <c r="D21" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E21" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F21" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="22" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G21" s="5">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="22" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A22" s="3" t="s">
         <v>37</v>
       </c>
@@ -1183,17 +1424,17 @@
       <c r="C22" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D22" t="s">
-        <v>86</v>
-      </c>
-      <c r="E22" t="s">
+      <c r="E22" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F22" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="23" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G22" s="5">
+        <v>288000</v>
+      </c>
+    </row>
+    <row r="23" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A23" s="3" t="s">
         <v>38</v>
       </c>
@@ -1201,19 +1442,22 @@
         <v>72</v>
       </c>
       <c r="C23" s="3" t="s">
-        <v>113</v>
-      </c>
-      <c r="D23" t="s">
-        <v>90</v>
-      </c>
-      <c r="E23" t="s">
+        <v>112</v>
+      </c>
+      <c r="D23" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E23" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F23" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="24" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G23" s="5">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="24" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A24" s="3" t="s">
         <v>39</v>
       </c>
@@ -1221,19 +1465,22 @@
         <v>73</v>
       </c>
       <c r="C24" s="3" t="s">
-        <v>114</v>
-      </c>
-      <c r="D24" t="s">
-        <v>93</v>
-      </c>
-      <c r="E24" t="s">
+        <v>113</v>
+      </c>
+      <c r="D24" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E24" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F24" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="25" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G24" s="5">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="25" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A25" s="3" t="s">
         <v>40</v>
       </c>
@@ -1241,19 +1488,22 @@
         <v>74</v>
       </c>
       <c r="C25" s="3" t="s">
-        <v>115</v>
-      </c>
-      <c r="D25" t="s">
-        <v>90</v>
-      </c>
-      <c r="E25" t="s">
+        <v>114</v>
+      </c>
+      <c r="D25" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E25" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F25" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="26" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G25" s="5">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="26" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A26" s="3" t="s">
         <v>41</v>
       </c>
@@ -1261,19 +1511,22 @@
         <v>75</v>
       </c>
       <c r="C26" s="3" t="s">
-        <v>116</v>
-      </c>
-      <c r="D26" t="s">
+        <v>115</v>
+      </c>
+      <c r="D26" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E26" t="s">
+      <c r="E26" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F26" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="27" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G26" s="5">
+        <v>219670</v>
+      </c>
+    </row>
+    <row r="27" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A27" s="3" t="s">
         <v>42</v>
       </c>
@@ -1281,19 +1534,22 @@
         <v>76</v>
       </c>
       <c r="C27" s="3" t="s">
-        <v>117</v>
-      </c>
-      <c r="D27" t="s">
-        <v>90</v>
-      </c>
-      <c r="E27" t="s">
+        <v>116</v>
+      </c>
+      <c r="D27" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E27" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F27" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="28" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G27" s="5">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="28" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A28" s="3" t="s">
         <v>43</v>
       </c>
@@ -1301,19 +1557,22 @@
         <v>77</v>
       </c>
       <c r="C28" s="3" t="s">
-        <v>118</v>
-      </c>
-      <c r="D28" t="s">
-        <v>94</v>
-      </c>
-      <c r="E28" t="s">
+        <v>117</v>
+      </c>
+      <c r="D28" s="3" t="s">
+        <v>93</v>
+      </c>
+      <c r="E28" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F28" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="29" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G28" s="5">
+        <v>217800</v>
+      </c>
+    </row>
+    <row r="29" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A29" s="3" t="s">
         <v>44</v>
       </c>
@@ -1321,19 +1580,22 @@
         <v>59</v>
       </c>
       <c r="C29" s="3" t="s">
-        <v>119</v>
-      </c>
-      <c r="D29" t="s">
-        <v>90</v>
-      </c>
-      <c r="E29" t="s">
+        <v>118</v>
+      </c>
+      <c r="D29" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E29" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F29" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="30" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G29" s="5">
+        <v>220000</v>
+      </c>
+    </row>
+    <row r="30" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A30" s="3" t="s">
         <v>45</v>
       </c>
@@ -1341,19 +1603,22 @@
         <v>78</v>
       </c>
       <c r="C30" s="3" t="s">
-        <v>120</v>
-      </c>
-      <c r="D30" t="s">
+        <v>119</v>
+      </c>
+      <c r="D30" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E30" t="s">
+      <c r="E30" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F30" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="31" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G30" s="5">
+        <v>219670</v>
+      </c>
+    </row>
+    <row r="31" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A31" s="3" t="s">
         <v>46</v>
       </c>
@@ -1361,19 +1626,22 @@
         <v>79</v>
       </c>
       <c r="C31" s="3" t="s">
-        <v>121</v>
-      </c>
-      <c r="D31" t="s">
-        <v>88</v>
-      </c>
-      <c r="E31" t="s">
+        <v>120</v>
+      </c>
+      <c r="D31" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E31" s="3" t="s">
         <v>15</v>
       </c>
       <c r="F31" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="32" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G31" s="5">
+        <v>219670</v>
+      </c>
+    </row>
+    <row r="32" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A32" s="3" t="s">
         <v>37</v>
       </c>
@@ -1383,14 +1651,17 @@
       <c r="C32" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E32" t="s">
+      <c r="E32" s="3" t="s">
         <v>16</v>
       </c>
       <c r="F32" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="33" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G32" s="5">
+        <v>3102213</v>
+      </c>
+    </row>
+    <row r="33" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A33" s="3" t="s">
         <v>47</v>
       </c>
@@ -1398,19 +1669,22 @@
         <v>80</v>
       </c>
       <c r="C33" s="3" t="s">
-        <v>122</v>
-      </c>
-      <c r="D33" t="s">
-        <v>95</v>
-      </c>
-      <c r="E33" t="s">
+        <v>121</v>
+      </c>
+      <c r="D33" s="3" t="s">
+        <v>94</v>
+      </c>
+      <c r="E33" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F33" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="34" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G33" s="5">
+        <v>714000</v>
+      </c>
+    </row>
+    <row r="34" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A34" s="3" t="s">
         <v>48</v>
       </c>
@@ -1420,17 +1694,17 @@
       <c r="C34" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="D34" t="s">
-        <v>86</v>
-      </c>
-      <c r="E34" t="s">
+      <c r="E34" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F34" s="5">
         <v>4</v>
       </c>
-    </row>
-    <row r="35" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G34" s="5">
+        <v>2236800</v>
+      </c>
+    </row>
+    <row r="35" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A35" s="3" t="s">
         <v>49</v>
       </c>
@@ -1438,19 +1712,19 @@
         <v>63</v>
       </c>
       <c r="C35" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="D35" t="s">
-        <v>86</v>
-      </c>
-      <c r="E35" t="s">
+        <v>96</v>
+      </c>
+      <c r="E35" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F35" s="5">
         <v>3</v>
       </c>
-    </row>
-    <row r="36" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G35" s="5">
+        <v>1677600</v>
+      </c>
+    </row>
+    <row r="36" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A36" s="3" t="s">
         <v>50</v>
       </c>
@@ -1458,19 +1732,22 @@
         <v>81</v>
       </c>
       <c r="C36" s="3" t="s">
-        <v>123</v>
-      </c>
-      <c r="D36" t="s">
+        <v>122</v>
+      </c>
+      <c r="D36" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E36" t="s">
+      <c r="E36" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F36" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="37" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G36" s="5">
+        <v>718920</v>
+      </c>
+    </row>
+    <row r="37" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A37" s="3" t="s">
         <v>51</v>
       </c>
@@ -1478,19 +1755,22 @@
         <v>82</v>
       </c>
       <c r="C37" s="3" t="s">
-        <v>124</v>
-      </c>
-      <c r="D37" t="s">
-        <v>90</v>
-      </c>
-      <c r="E37" t="s">
+        <v>123</v>
+      </c>
+      <c r="D37" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E37" s="3" t="s">
         <v>17</v>
       </c>
       <c r="F37" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="38" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G37" s="5">
+        <v>720000</v>
+      </c>
+    </row>
+    <row r="38" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A38" s="3" t="s">
         <v>48</v>
       </c>
@@ -1500,14 +1780,17 @@
       <c r="C38" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E38" t="s">
+      <c r="E38" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F38" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="39" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G38" s="5">
+        <v>8034000</v>
+      </c>
+    </row>
+    <row r="39" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A39" s="3" t="s">
         <v>49</v>
       </c>
@@ -1515,16 +1798,19 @@
         <v>63</v>
       </c>
       <c r="C39" s="3" t="s">
-        <v>97</v>
-      </c>
-      <c r="E39" t="s">
+        <v>96</v>
+      </c>
+      <c r="E39" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F39" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="40" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G39" s="5">
+        <v>8034000</v>
+      </c>
+    </row>
+    <row r="40" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A40" s="3" t="s">
         <v>52</v>
       </c>
@@ -1534,14 +1820,17 @@
       <c r="C40" s="3" t="s">
         <v>13</v>
       </c>
-      <c r="E40" t="s">
+      <c r="E40" s="3" t="s">
         <v>18</v>
       </c>
       <c r="F40" s="5">
         <v>2</v>
       </c>
-    </row>
-    <row r="41" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G40" s="5">
+        <v>8034000</v>
+      </c>
+    </row>
+    <row r="41" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A41" s="3" t="s">
         <v>53</v>
       </c>
@@ -1549,19 +1838,22 @@
         <v>83</v>
       </c>
       <c r="C41" s="3" t="s">
-        <v>125</v>
-      </c>
-      <c r="D41" t="s">
-        <v>93</v>
-      </c>
-      <c r="E41" t="s">
+        <v>124</v>
+      </c>
+      <c r="D41" s="3" t="s">
+        <v>92</v>
+      </c>
+      <c r="E41" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F41" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="42" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G41" s="5">
+        <v>1149000</v>
+      </c>
+    </row>
+    <row r="42" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A42" s="3" t="s">
         <v>54</v>
       </c>
@@ -1569,19 +1861,22 @@
         <v>68</v>
       </c>
       <c r="C42" s="3" t="s">
-        <v>126</v>
-      </c>
-      <c r="D42" t="s">
-        <v>96</v>
-      </c>
-      <c r="E42" t="s">
+        <v>125</v>
+      </c>
+      <c r="D42" s="3" t="s">
+        <v>95</v>
+      </c>
+      <c r="E42" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F42" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="43" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G42" s="5">
+        <v>1149000</v>
+      </c>
+    </row>
+    <row r="43" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A43" s="3" t="s">
         <v>55</v>
       </c>
@@ -1589,19 +1884,22 @@
         <v>84</v>
       </c>
       <c r="C43" s="3" t="s">
-        <v>127</v>
-      </c>
-      <c r="D43" t="s">
-        <v>90</v>
-      </c>
-      <c r="E43" t="s">
+        <v>126</v>
+      </c>
+      <c r="D43" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E43" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F43" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="44" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G43" s="5">
+        <v>1149000</v>
+      </c>
+    </row>
+    <row r="44" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A44" s="3" t="s">
         <v>56</v>
       </c>
@@ -1609,19 +1907,22 @@
         <v>85</v>
       </c>
       <c r="C44" s="3" t="s">
-        <v>128</v>
-      </c>
-      <c r="D44" t="s">
+        <v>127</v>
+      </c>
+      <c r="D44" s="3" t="s">
         <v>9</v>
       </c>
-      <c r="E44" t="s">
+      <c r="E44" s="3" t="s">
         <v>19</v>
       </c>
       <c r="F44" s="5">
         <v>1</v>
       </c>
-    </row>
-    <row r="45" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="G44" s="5">
+        <v>1147276</v>
+      </c>
+    </row>
+    <row r="45" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A45" s="3" t="s">
         <v>57</v>
       </c>
@@ -1629,16 +1930,525 @@
         <v>60</v>
       </c>
       <c r="C45" s="3" t="s">
-        <v>99</v>
-      </c>
-      <c r="D45" t="s">
-        <v>88</v>
-      </c>
-      <c r="E45" t="s">
+        <v>98</v>
+      </c>
+      <c r="D45" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E45" s="3" t="s">
         <v>20</v>
       </c>
       <c r="F45" s="5">
         <v>1</v>
+      </c>
+      <c r="G45" s="5">
+        <v>1449000</v>
+      </c>
+    </row>
+    <row r="46" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A46" s="3" t="s">
+        <v>129</v>
+      </c>
+      <c r="B46" s="3" t="s">
+        <v>62</v>
+      </c>
+      <c r="C46" s="3" t="s">
+        <v>130</v>
+      </c>
+      <c r="D46" s="3" t="s">
+        <v>131</v>
+      </c>
+      <c r="E46" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F46" s="5">
+        <v>1</v>
+      </c>
+      <c r="G46" s="5">
+        <v>1449000</v>
+      </c>
+    </row>
+    <row r="47" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A47" s="3" t="s">
+        <v>132</v>
+      </c>
+      <c r="B47" s="3" t="s">
+        <v>83</v>
+      </c>
+      <c r="C47" s="3" t="s">
+        <v>133</v>
+      </c>
+      <c r="D47" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E47" s="3" t="s">
+        <v>20</v>
+      </c>
+      <c r="F47" s="5">
+        <v>1</v>
+      </c>
+      <c r="G47" s="5">
+        <v>1420020</v>
+      </c>
+    </row>
+    <row r="48" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A48" s="3" t="s">
+        <v>135</v>
+      </c>
+      <c r="B48" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C48" s="3" t="s">
+        <v>160</v>
+      </c>
+      <c r="D48" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E48" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F48" s="5">
+        <v>1</v>
+      </c>
+      <c r="G48" s="5">
+        <v>578200</v>
+      </c>
+    </row>
+    <row r="49" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A49" s="3" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" s="3" t="s">
+        <v>149</v>
+      </c>
+      <c r="C49" s="3" t="s">
+        <v>161</v>
+      </c>
+      <c r="D49" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E49" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F49" s="5">
+        <v>1</v>
+      </c>
+      <c r="G49" s="5">
+        <v>589115</v>
+      </c>
+    </row>
+    <row r="50" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A50" s="3" t="s">
+        <v>137</v>
+      </c>
+      <c r="B50" s="3" t="s">
+        <v>150</v>
+      </c>
+      <c r="C50" s="3" t="s">
+        <v>162</v>
+      </c>
+      <c r="D50" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E50" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F50" s="5">
+        <v>1</v>
+      </c>
+      <c r="G50" s="5">
+        <v>590000</v>
+      </c>
+    </row>
+    <row r="51" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A51" s="3" t="s">
+        <v>138</v>
+      </c>
+      <c r="B51" s="3" t="s">
+        <v>151</v>
+      </c>
+      <c r="C51" s="3" t="s">
+        <v>163</v>
+      </c>
+      <c r="D51" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E51" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F51" s="5">
+        <v>1</v>
+      </c>
+      <c r="G51" s="5">
+        <v>578200</v>
+      </c>
+    </row>
+    <row r="52" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A52" s="3" t="s">
+        <v>139</v>
+      </c>
+      <c r="B52" s="3" t="s">
+        <v>67</v>
+      </c>
+      <c r="C52" s="3" t="s">
+        <v>164</v>
+      </c>
+      <c r="D52" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E52" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F52" s="5">
+        <v>1</v>
+      </c>
+      <c r="G52" s="5">
+        <v>590000</v>
+      </c>
+    </row>
+    <row r="53" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A53" s="3" t="s">
+        <v>140</v>
+      </c>
+      <c r="B53" s="3" t="s">
+        <v>152</v>
+      </c>
+      <c r="C53" s="3" t="s">
+        <v>165</v>
+      </c>
+      <c r="D53" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E53" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F53" s="5">
+        <v>1</v>
+      </c>
+      <c r="G53" s="5">
+        <v>590000</v>
+      </c>
+    </row>
+    <row r="54" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A54" s="3" t="s">
+        <v>141</v>
+      </c>
+      <c r="B54" s="3" t="s">
+        <v>68</v>
+      </c>
+      <c r="C54" s="3" t="s">
+        <v>166</v>
+      </c>
+      <c r="D54" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E54" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F54" s="5">
+        <v>1</v>
+      </c>
+      <c r="G54" s="5">
+        <v>590000</v>
+      </c>
+    </row>
+    <row r="55" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A55" s="3" t="s">
+        <v>142</v>
+      </c>
+      <c r="B55" s="3" t="s">
+        <v>153</v>
+      </c>
+      <c r="C55" s="3" t="s">
+        <v>167</v>
+      </c>
+      <c r="D55" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E55" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F55" s="5">
+        <v>1</v>
+      </c>
+      <c r="G55" s="5">
+        <v>590000</v>
+      </c>
+    </row>
+    <row r="56" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A56" s="3" t="s">
+        <v>143</v>
+      </c>
+      <c r="B56" s="3" t="s">
+        <v>154</v>
+      </c>
+      <c r="C56" s="3" t="s">
+        <v>168</v>
+      </c>
+      <c r="D56" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E56" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F56" s="5">
+        <v>1</v>
+      </c>
+      <c r="G56" s="5">
+        <v>589115</v>
+      </c>
+    </row>
+    <row r="57" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A57" s="3" t="s">
+        <v>144</v>
+      </c>
+      <c r="B57" s="3" t="s">
+        <v>155</v>
+      </c>
+      <c r="C57" s="3" t="s">
+        <v>169</v>
+      </c>
+      <c r="D57" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E57" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F57" s="5">
+        <v>1</v>
+      </c>
+      <c r="G57" s="5">
+        <v>589115</v>
+      </c>
+    </row>
+    <row r="58" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A58" s="3" t="s">
+        <v>145</v>
+      </c>
+      <c r="B58" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C58" s="3" t="s">
+        <v>170</v>
+      </c>
+      <c r="D58" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E58" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F58" s="5">
+        <v>1</v>
+      </c>
+      <c r="G58" s="5">
+        <v>590000</v>
+      </c>
+    </row>
+    <row r="59" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A59" s="3" t="s">
+        <v>146</v>
+      </c>
+      <c r="B59" s="3" t="s">
+        <v>71</v>
+      </c>
+      <c r="C59" s="3" t="s">
+        <v>171</v>
+      </c>
+      <c r="D59" s="3" t="s">
+        <v>158</v>
+      </c>
+      <c r="E59" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F59" s="5">
+        <v>1</v>
+      </c>
+      <c r="G59" s="5">
+        <v>589115</v>
+      </c>
+    </row>
+    <row r="60" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A60" s="3" t="s">
+        <v>147</v>
+      </c>
+      <c r="B60" s="3" t="s">
+        <v>156</v>
+      </c>
+      <c r="C60" s="3" t="s">
+        <v>172</v>
+      </c>
+      <c r="D60" s="3" t="s">
+        <v>134</v>
+      </c>
+      <c r="E60" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F60" s="5">
+        <v>2</v>
+      </c>
+      <c r="G60" s="5">
+        <v>1078000</v>
+      </c>
+    </row>
+    <row r="61" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A61" s="3" t="s">
+        <v>148</v>
+      </c>
+      <c r="B61" s="3" t="s">
+        <v>157</v>
+      </c>
+      <c r="C61" s="3" t="s">
+        <v>173</v>
+      </c>
+      <c r="D61" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E61" s="3" t="s">
+        <v>159</v>
+      </c>
+      <c r="F61" s="5">
+        <v>1</v>
+      </c>
+      <c r="G61" s="5">
+        <v>519000</v>
+      </c>
+    </row>
+    <row r="62" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A62" s="3" t="s">
+        <v>174</v>
+      </c>
+      <c r="B62" s="3" t="s">
+        <v>180</v>
+      </c>
+      <c r="C62" s="3" t="s">
+        <v>185</v>
+      </c>
+      <c r="D62" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E62" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F62" s="5">
+        <v>1</v>
+      </c>
+      <c r="G62" s="5">
+        <v>790000</v>
+      </c>
+    </row>
+    <row r="63" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A63" s="3" t="s">
+        <v>175</v>
+      </c>
+      <c r="B63" s="3" t="s">
+        <v>80</v>
+      </c>
+      <c r="C63" s="3" t="s">
+        <v>186</v>
+      </c>
+      <c r="D63" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E63" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F63" s="5">
+        <v>1</v>
+      </c>
+      <c r="G63" s="5">
+        <v>774200</v>
+      </c>
+    </row>
+    <row r="64" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A64" s="3" t="s">
+        <v>176</v>
+      </c>
+      <c r="B64" s="3" t="s">
+        <v>181</v>
+      </c>
+      <c r="C64" s="3" t="s">
+        <v>187</v>
+      </c>
+      <c r="D64" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E64" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F64" s="5">
+        <v>1</v>
+      </c>
+      <c r="G64" s="5">
+        <v>790000</v>
+      </c>
+    </row>
+    <row r="65" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A65" s="3" t="s">
+        <v>177</v>
+      </c>
+      <c r="B65" s="3" t="s">
+        <v>182</v>
+      </c>
+      <c r="C65" s="3" t="s">
+        <v>188</v>
+      </c>
+      <c r="D65" s="3" t="s">
+        <v>89</v>
+      </c>
+      <c r="E65" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F65" s="5">
+        <v>1</v>
+      </c>
+      <c r="G65" s="5">
+        <v>790000</v>
+      </c>
+    </row>
+    <row r="66" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A66" s="3" t="s">
+        <v>178</v>
+      </c>
+      <c r="B66" s="3" t="s">
+        <v>66</v>
+      </c>
+      <c r="C66" s="3" t="s">
+        <v>189</v>
+      </c>
+      <c r="D66" s="3" t="s">
+        <v>87</v>
+      </c>
+      <c r="E66" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F66" s="5">
+        <v>1</v>
+      </c>
+      <c r="G66" s="5">
+        <v>790000</v>
+      </c>
+    </row>
+    <row r="67" spans="1:7" x14ac:dyDescent="0.25">
+      <c r="A67" s="3" t="s">
+        <v>179</v>
+      </c>
+      <c r="B67" s="3" t="s">
+        <v>183</v>
+      </c>
+      <c r="C67" s="3" t="s">
+        <v>190</v>
+      </c>
+      <c r="D67" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="E67" s="3" t="s">
+        <v>184</v>
+      </c>
+      <c r="F67" s="5">
+        <v>1</v>
+      </c>
+      <c r="G67" s="5">
+        <v>788815</v>
       </c>
     </row>
   </sheetData>
